--- a/2019_dengue_extracted.xlsx
+++ b/2019_dengue_extracted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF9219A-3B00-1F42-AF52-7D3546ACF7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11388"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28260" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -294,12 +292,15 @@
   </si>
   <si>
     <t xml:space="preserve">Phangnga </t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,7 +421,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -464,7 +471,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -508,7 +521,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -802,14 +821,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30"/>
     <col min="2" max="7" width="7"/>
@@ -817,50 +834,50 @@
     <col min="9" max="13" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -899,9 +916,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>30</v>
@@ -940,9 +957,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>928</v>
@@ -981,9 +998,9 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
         <v>17</v>
@@ -1022,9 +1039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1">
         <v>118</v>
@@ -1063,9 +1080,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>92</v>
@@ -1104,9 +1121,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>27</v>
@@ -1145,9 +1162,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
         <v>76</v>
@@ -1186,9 +1203,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
         <v>30</v>
@@ -1227,9 +1244,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>27</v>
@@ -1268,9 +1285,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>35</v>
@@ -1309,9 +1326,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>202</v>
@@ -1350,9 +1367,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1">
         <v>37</v>
@@ -1394,9 +1411,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1">
         <v>26</v>
@@ -1435,9 +1452,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>20</v>
@@ -1476,9 +1493,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>37</v>
@@ -1517,9 +1534,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>130</v>
@@ -1558,9 +1575,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1">
         <v>43</v>
@@ -1599,9 +1616,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
         <v>8</v>
@@ -1640,9 +1657,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1681,9 +1698,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>16</v>
@@ -1722,9 +1739,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>136</v>
@@ -1763,9 +1780,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1">
         <v>11</v>
@@ -1804,9 +1821,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
         <v>45</v>
@@ -1845,9 +1862,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1">
         <v>8</v>
@@ -1886,9 +1903,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1">
         <v>9</v>
@@ -1927,9 +1944,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1">
         <v>297</v>
@@ -1968,9 +1985,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>6</v>
@@ -2009,9 +2026,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1">
         <v>214</v>
@@ -2050,9 +2067,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>148</v>
@@ -2091,9 +2108,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1">
         <v>295</v>
@@ -2132,9 +2149,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1">
         <v>4</v>
@@ -2173,9 +2190,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1">
         <v>97</v>
@@ -2214,9 +2231,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1">
         <v>10</v>
@@ -2255,9 +2272,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1">
         <v>18</v>
@@ -2296,9 +2313,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>119</v>
@@ -2337,9 +2354,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>91</v>
@@ -2378,9 +2395,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>68</v>
@@ -2419,9 +2436,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1">
         <v>122</v>
@@ -2460,9 +2477,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="1">
         <v>711</v>
@@ -2501,9 +2518,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1">
         <v>50</v>
@@ -2542,9 +2559,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -2583,9 +2600,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1">
         <v>27</v>
@@ -2624,9 +2641,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
         <v>72</v>
@@ -2665,9 +2682,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1">
         <v>11</v>
@@ -2706,9 +2723,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1">
         <v>25</v>
@@ -2747,9 +2764,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2788,9 +2805,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1">
         <v>64</v>
@@ -2829,9 +2846,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>44</v>
@@ -2870,9 +2887,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1">
         <v>35</v>
@@ -2911,9 +2928,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1">
         <v>17</v>
@@ -2952,9 +2969,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1">
         <v>208</v>
@@ -2993,9 +3010,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>108</v>
@@ -3034,9 +3051,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
         <v>49</v>
@@ -3075,9 +3092,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
         <v>28</v>
@@ -3116,9 +3133,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1">
         <v>10</v>
@@ -3157,9 +3174,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1">
         <v>124</v>
@@ -3198,9 +3215,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1">
         <v>169</v>
@@ -3239,9 +3256,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1">
         <v>19</v>
@@ -3280,9 +3297,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="1">
         <v>31</v>
@@ -3321,9 +3338,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" s="1">
         <v>14</v>
@@ -3362,9 +3379,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1">
         <v>78</v>
@@ -3403,9 +3420,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1">
         <v>6</v>
@@ -3444,9 +3461,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1">
         <v>226</v>
@@ -3485,9 +3502,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="1">
         <v>50</v>
@@ -3526,9 +3543,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1">
         <v>102</v>
@@ -3567,9 +3584,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="1">
         <v>48</v>
@@ -3611,9 +3628,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1">
         <v>101</v>
@@ -3652,9 +3669,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1">
         <v>20</v>
@@ -3693,9 +3710,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1">
         <v>35</v>
@@ -3734,9 +3751,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1">
         <v>30</v>
@@ -3775,9 +3792,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>122</v>
@@ -3816,9 +3833,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1">
         <v>57</v>
@@ -3857,9 +3874,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1">
         <v>19</v>
@@ -3898,9 +3915,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="1">
         <v>588</v>
@@ -3939,9 +3956,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1">
         <v>87</v>
@@ -3980,9 +3997,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1">
         <v>21</v>
@@ -4021,7 +4038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4036,7 +4053,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4051,7 +4068,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4066,7 +4083,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4081,7 +4098,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4096,7 +4113,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4111,7 +4128,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4126,7 +4143,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4142,7 +4159,7 @@
       <c r="M86" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M78">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2019_dengue_extracted.xlsx
+++ b/2019_dengue_extracted.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF9219A-3B00-1F42-AF52-7D3546ACF7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28260" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="498" windowWidth="28260" windowHeight="11382"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,7 +423,7 @@
         <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -474,7 +473,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,7 +523,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,12 +820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="30"/>
     <col min="2" max="7" width="7"/>
@@ -834,7 +835,7 @@
     <col min="9" max="13" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -875,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -916,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -957,7 +958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -998,7 +999,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -1407,11 +1408,9 @@
       <c r="M14" s="1">
         <v>13</v>
       </c>
-      <c r="N14" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1944,7 +1943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -2477,48 +2476,48 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="1">
-        <v>711</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D41" s="1">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G41" s="1">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="H41" s="1">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="I41" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J41" s="1">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K41" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L41" s="1">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M41" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>37</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>84</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
@@ -3461,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>85</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -3624,11 +3623,9 @@
       <c r="M68" s="1">
         <v>47</v>
       </c>
-      <c r="N68" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -3669,7 +3666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -3751,7 +3748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>54</v>
       </c>
@@ -3792,7 +3789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -3833,7 +3830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3874,7 +3871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
@@ -3915,48 +3912,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="1">
-        <v>588</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1">
         <v>12</v>
       </c>
-      <c r="D76" s="1">
-        <v>8</v>
-      </c>
       <c r="E76" s="1">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F76" s="1">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G76" s="1">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="H76" s="1">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="I76" s="1">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="J76" s="1">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K76" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L76" s="1">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M76" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -3997,7 +3994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
@@ -4038,7 +4035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4053,7 +4050,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4068,7 +4065,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4083,7 +4080,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4098,7 +4095,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4113,7 +4110,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4128,7 +4125,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4143,7 +4140,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4159,7 +4156,7 @@
       <c r="M86" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
+  <sortState ref="A2:M78">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2019_dengue_extracted.xlsx
+++ b/2019_dengue_extracted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_ABBFF733F97581459632660ACEEF6516ACA035F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5155BC75-2D5E-4608-949E-1D258704393D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="498" windowWidth="28260" windowHeight="11382"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,18 +42,9 @@
     <t>May</t>
   </si>
   <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Sep</t>
-  </si>
-  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -293,13 +285,22 @@
     <t xml:space="preserve">Phangnga </t>
   </si>
   <si>
-    <t>Reporting_areas</t>
+    <t>Reporting areas</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Sept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +389,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,7 +424,7 @@
         <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,7 +474,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,7 +524,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -820,14 +821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30"/>
     <col min="2" max="7" width="7"/>
@@ -835,9 +836,9 @@
     <col min="9" max="13" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -855,30 +856,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -917,9 +918,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>30</v>
@@ -958,9 +959,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>928</v>
@@ -999,9 +1000,9 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1">
         <v>17</v>
@@ -1040,9 +1041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>118</v>
@@ -1081,9 +1082,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>92</v>
@@ -1122,9 +1123,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>27</v>
@@ -1163,9 +1164,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1">
         <v>76</v>
@@ -1204,9 +1205,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>30</v>
@@ -1245,9 +1246,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>27</v>
@@ -1286,9 +1287,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>35</v>
@@ -1327,9 +1328,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>202</v>
@@ -1368,9 +1369,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1">
         <v>37</v>
@@ -1410,9 +1411,9 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
         <v>26</v>
@@ -1451,9 +1452,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>20</v>
@@ -1492,9 +1493,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>37</v>
@@ -1533,9 +1534,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1">
         <v>130</v>
@@ -1574,9 +1575,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1">
         <v>43</v>
@@ -1615,9 +1616,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>8</v>
@@ -1656,9 +1657,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1697,9 +1698,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
         <v>16</v>
@@ -1738,9 +1739,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
         <v>136</v>
@@ -1779,9 +1780,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1">
         <v>11</v>
@@ -1820,9 +1821,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>45</v>
@@ -1861,9 +1862,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
         <v>8</v>
@@ -1902,9 +1903,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>9</v>
@@ -1943,9 +1944,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1">
         <v>297</v>
@@ -1984,9 +1985,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1">
         <v>6</v>
@@ -2025,9 +2026,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1">
         <v>214</v>
@@ -2066,9 +2067,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>148</v>
@@ -2107,9 +2108,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <v>295</v>
@@ -2148,9 +2149,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1">
         <v>4</v>
@@ -2189,9 +2190,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1">
         <v>97</v>
@@ -2230,9 +2231,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1">
         <v>10</v>
@@ -2271,9 +2272,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1">
         <v>18</v>
@@ -2312,9 +2313,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1">
         <v>119</v>
@@ -2353,9 +2354,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1">
         <v>91</v>
@@ -2394,9 +2395,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1">
         <v>68</v>
@@ -2435,9 +2436,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1">
         <v>122</v>
@@ -2476,9 +2477,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1">
         <v>66</v>
@@ -2517,9 +2518,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1">
         <v>50</v>
@@ -2558,9 +2559,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -2599,9 +2600,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1">
         <v>27</v>
@@ -2640,9 +2641,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1">
         <v>72</v>
@@ -2681,9 +2682,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46" s="1">
         <v>11</v>
@@ -2722,9 +2723,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1">
         <v>25</v>
@@ -2763,9 +2764,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2804,9 +2805,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1">
         <v>64</v>
@@ -2845,9 +2846,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>44</v>
@@ -2886,9 +2887,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1">
         <v>35</v>
@@ -2927,9 +2928,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1">
         <v>17</v>
@@ -2968,9 +2969,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1">
         <v>208</v>
@@ -3009,9 +3010,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1">
         <v>108</v>
@@ -3050,9 +3051,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>49</v>
@@ -3091,9 +3092,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1">
         <v>28</v>
@@ -3132,9 +3133,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1">
         <v>10</v>
@@ -3173,9 +3174,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1">
         <v>124</v>
@@ -3214,9 +3215,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B59" s="1">
         <v>169</v>
@@ -3255,9 +3256,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B60" s="1">
         <v>19</v>
@@ -3296,9 +3297,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" s="1">
         <v>31</v>
@@ -3337,9 +3338,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" s="1">
         <v>14</v>
@@ -3378,9 +3379,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1">
         <v>78</v>
@@ -3419,9 +3420,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1">
         <v>6</v>
@@ -3460,9 +3461,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B65" s="1">
         <v>226</v>
@@ -3501,9 +3502,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1">
         <v>50</v>
@@ -3542,9 +3543,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B67" s="1">
         <v>102</v>
@@ -3583,9 +3584,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1">
         <v>48</v>
@@ -3625,9 +3626,9 @@
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1">
         <v>101</v>
@@ -3666,9 +3667,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B70" s="1">
         <v>20</v>
@@ -3707,9 +3708,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B71" s="1">
         <v>35</v>
@@ -3748,9 +3749,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B72" s="1">
         <v>30</v>
@@ -3789,9 +3790,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1">
         <v>122</v>
@@ -3830,9 +3831,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1">
         <v>57</v>
@@ -3871,9 +3872,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B75" s="1">
         <v>19</v>
@@ -3912,9 +3913,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B76" s="1">
         <v>12</v>
@@ -3953,9 +3954,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="17.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1">
         <v>87</v>
@@ -3994,9 +3995,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1">
         <v>21</v>
@@ -4035,7 +4036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4050,7 +4051,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4065,7 +4066,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4080,7 +4081,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4095,7 +4096,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4110,7 +4111,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4125,7 +4126,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4140,7 +4141,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4156,7 +4157,7 @@
       <c r="M86" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M78">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2019_dengue_extracted.xlsx
+++ b/2019_dengue_extracted.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_ABBFF733F97581459632660ACEEF6516ACA035F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5155BC75-2D5E-4608-949E-1D258704393D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,22 +284,22 @@
     <t xml:space="preserve">Phangnga </t>
   </si>
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Sept</t>
+    <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +388,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,7 +423,7 @@
         <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -474,7 +473,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,7 +523,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,14 +820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="30"/>
     <col min="2" max="7" width="7"/>
@@ -836,7 +835,7 @@
     <col min="9" max="13" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -877,7 +876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -918,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -959,7 +958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -1411,7 +1410,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1944,7 +1943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>42</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>81</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>35</v>
       </c>
@@ -3461,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>19</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -3626,7 +3625,7 @@
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -3667,7 +3666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>51</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>62</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -3954,7 +3953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>71</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4051,7 +4050,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4066,7 +4065,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4081,7 +4080,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4096,7 +4095,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4111,7 +4110,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4126,7 +4125,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4141,7 +4140,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4157,7 +4156,7 @@
       <c r="M86" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
+  <sortState ref="A2:M78">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
